--- a/Discharge/Discharge_2019/Discharge_July24.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B4943-4913-E747-9EE9-03C77DF36A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B16BE7-CC90-F145-9BD2-872B1C16D7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1860" windowWidth="14460" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1860" windowWidth="14460" windowHeight="17880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>Station 4</t>
   </si>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1415,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1956,10 +1956,275 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>A30-A19</f>
         <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.3</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>C19*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>A38</f>
+        <v>0.3</v>
+      </c>
+      <c r="F38">
+        <f>SUM(E38:E56)</f>
+        <v>9.5356146599999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.35</v>
+      </c>
+      <c r="B39">
+        <v>0.21164000000000002</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C49" si="6">C20*2.54</f>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="D39">
+        <f>(A39+(A40-A39)/2)</f>
+        <v>0.36</v>
+      </c>
+      <c r="E39">
+        <f>(D39-D38)*(B39)*C39</f>
+        <v>1.1611416960000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.37</v>
+      </c>
+      <c r="B40">
+        <v>0.26884000000000002</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="6"/>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D41" si="7">(A40+(A41-A40)/2)</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E40">
+        <f>(D40-D39)*(B40)*C40</f>
+        <v>6.1456824000000057E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="B41">
+        <v>0.38895999999999997</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="7"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E49" si="8">(D41-D40)*(B41)*C41</f>
+        <v>1.4621784320000011E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.45</v>
+      </c>
+      <c r="B42">
+        <v>0.38324000000000003</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="6"/>
+        <v>0.96520000000000006</v>
+      </c>
+      <c r="D42">
+        <f>(A42+(A43-A42)/2)</f>
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>1.4796129919999975E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.48</v>
+      </c>
+      <c r="B43">
+        <v>0.37751999999999997</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="6"/>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D49" si="9">(A43+(A44-A43)/2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="8"/>
+        <v>8.8698324000000064E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.5</v>
+      </c>
+      <c r="B44">
+        <v>0.40611999999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="6"/>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="9"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="8"/>
+        <v>9.2839032000000092E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.53</v>
+      </c>
+      <c r="B45">
+        <v>0.40611999999999998</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="6"/>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>9.541789400000009E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B46">
+        <v>0.38895999999999997</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="6"/>
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="8"/>
+        <v>8.3976463999999706E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B47">
+        <v>0.35464000000000001</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>0.81280000000000008</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="9"/>
+        <v>0.59</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="8"/>
+        <v>7.2062848000000066E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.6</v>
+      </c>
+      <c r="B48">
+        <v>0.1716</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>0.81280000000000008</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="9"/>
+        <v>0.625</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="8"/>
+        <v>4.8816768000000043E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.65</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="9"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1969,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2534,7 +2799,7 @@
         <v>1.467179999999995E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.4</v>
       </c>
@@ -2554,7 +2819,7 @@
         <v>4.976399999999982E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.45</v>
       </c>
@@ -2574,10 +2839,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>A34-A21</f>
         <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.8</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>C21*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>A40</f>
+        <v>0.8</v>
+      </c>
+      <c r="F40">
+        <f>SUM(E40:E58)</f>
+        <v>0.12859077660000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.85</v>
+      </c>
+      <c r="B41">
+        <v>9.1520000000000004E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C53" si="8">C22*2.54</f>
+        <v>0.34290000000000004</v>
+      </c>
+      <c r="D41">
+        <f>(A41+(A42-A41)/2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E41">
+        <f>(D41-D40)*(B41)*C41</f>
+        <v>2.3536655999999989E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.9</v>
+      </c>
+      <c r="B42">
+        <v>0.35464000000000001</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>0.36829999999999996</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D43" si="9">(A42+(A43-A42)/2)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E42">
+        <f>(D42-D41)*(B42)*C42</f>
+        <v>6.530695600000005E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.95</v>
+      </c>
+      <c r="B43">
+        <v>0.25168000000000001</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="8"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="9"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E53" si="10">(D43-D42)*(B43)*C43</f>
+        <v>5.4337711999999936E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>0.53768000000000005</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D44">
+        <f>(A44+(A45-A44)/2)</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="10"/>
+        <v>1.2291364799999985E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.05</v>
+      </c>
+      <c r="B45">
+        <v>0.59488000000000008</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D53" si="11">(A45+(A46-A45)/2)</f>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="10"/>
+        <v>1.5865449600000088E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B46">
+        <v>0.61203999999999992</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>0.52069999999999994</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>1.125</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>1.593446139999994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.57200000000000006</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="10"/>
+        <v>2.2519639999999924E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1.2</v>
+      </c>
+      <c r="B48">
+        <v>0.52051999999999998</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>0.73659999999999992</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="11"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="10"/>
+        <v>1.9170751600000101E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1.25</v>
+      </c>
+      <c r="B49">
+        <v>0.42328000000000005</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="11"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="10"/>
+        <v>1.6126967999999943E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.3</v>
+      </c>
+      <c r="B50">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>0.73659999999999992</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="11"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="10"/>
+        <v>7.3733660000000383E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1.35</v>
+      </c>
+      <c r="B51">
+        <v>0.15444000000000002</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>0.48260000000000003</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="11"/>
+        <v>1.375</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>3.7266371999999876E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1.4</v>
+      </c>
+      <c r="B52">
+        <v>0.16588</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="11"/>
+        <v>1.4249999999999998</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>1.2640055999999956E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1.45</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="11"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3134,6 +3704,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -3317,22 +3902,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ACEECD-FAF1-413E-9F2A-E9F2BEACAE90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B97BBF34-7C49-451F-921B-DD132865CB21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC30BD74-CDC3-416F-952E-86FF02A43DA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3348,28 +3942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B97BBF34-7C49-451F-921B-DD132865CB21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53ACEECD-FAF1-413E-9F2A-E9F2BEACAE90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>